--- a/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Kas_events/LocalizationDef.xlsx
@@ -103,8 +103,8 @@
 "Commander, thanks for letting me participate in the endurance competition!" {TGT_MW.Subj} {TGT_MW.Gender?NonBinary:say|Default:says} enthusiastically. "I didn't win, but I feel like I did pretty well. Those locals, wow, they have endless stamina! I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."</t>
   </si>
   <si>
-    <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите {TGT_MW.Obj} в столовой, кормящего слушателей рассказами о гонке.
-«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот {TGT_MW.Subj} с энтузиазмом. «Без победы, но хотя бы неплохое участие. Эти местные жители, вау, у них бесконечная выносливость! Мы держались на равных какое-то время, но потом я отстал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
+    <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы видите воина в столовой, кормящего слушателей рассказами о гонке.
+«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость!»,- говорит пилот с энтузиазмом. «Без победы, но здорово было поучаствовать. Эти местные жители,- вау! У них бесконечная выносливость! Мы держались на равных какое-то время, но потом пришлось отстать. 24 часа в перегревающейся кабине меха было бы и то менее утомительно».</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_0.Options1.0.Name</t>
@@ -124,9 +124,9 @@
 "Those locals, wow, they have endless stamina!. I managed to keep up with them for a while, but along the way I got tired. Spending 24 hours baking in an overheating mech cockpit is probably less exhausting."</t>
   </si>
   <si>
-    <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на этой неделе. Вы находите {TGT_MW.Obj} в столовой, с рукой в гипсе, угощающего слушателей рассказами о дерзких поступках.
-«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - {TGT_MW.Subj} говорит, поддерживая сломанную конечность.
-«Эти местные жители,- ух! - у них бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но в итоге я устал. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
+    <t xml:space="preserve">[[TGT_MW,{TGT_MW.Callsign}]] возвращается на &lt;i&gt;«Арго»&lt;/i&gt; позже на неделе. Вы находите воина в столовой, с рукой в гипсе, угощающего слушателей рассказами о своих приключениях.
+«Командир, спасибо, что разрешили мне участвовать в соревнованиях на выносливость, но я, э-э, возможно, немного перегнул палку», - говорит горе-бегун, поддерживая сломанную руку.
+«Эти местные жители,- ух! - у них просто бесконечная выносливость! Некоторое время мне удавалось поспевать за ними, но в итоге пришлось отстать. Провести 24 часа в перегревающейся кабине меха и то менее утомительно».</t>
   </si>
   <si>
     <t>event_mw_endurance_race.outcome_1_1.Options1.1.Name</t>
@@ -854,14 +854,14 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="82" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="8" width="9.140625" customWidth="1" style="2"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
